--- a/data/outputs/能源化工元源数据文件/11（2）BULLETIN OF THE KOREAN CHEMICAL SOCIETy.xlsx
+++ b/data/outputs/能源化工元源数据文件/11（2）BULLETIN OF THE KOREAN CHEMICAL SOCIETy.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ60"/>
+  <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1120,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1334,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1544,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1753,6 +1762,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1972,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2171,6 +2182,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2396,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3768200</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2593,6 +2610,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2824,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3042,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3248,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3458,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3646,6 +3668,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3855,6 +3878,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4068,6 +4092,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4277,6 +4302,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4486,6 +4512,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4691,6 +4718,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4892,6 +4920,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5097,6 +5126,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5298,6 +5328,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5499,6 +5530,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5704,6 +5736,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5905,6 +5938,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6114,6 +6148,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6319,6 +6354,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6524,6 +6560,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6733,6 +6770,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6938,6 +6976,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7143,6 +7182,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7356,6 +7396,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7561,6 +7602,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7774,6 +7816,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7963,6 +8006,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8172,6 +8216,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8377,6 +8422,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>6296401</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8590,6 +8640,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8676,7 +8727,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Gui, Jianzhou/0000-0002-8406-9886; </t>
+          <t>Gui, Jianzhou/0000-0002-8406-9886;</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -8803,6 +8854,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9016,6 +9068,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9233,6 +9286,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>6296404</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9438,6 +9496,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9647,6 +9706,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9856,6 +9916,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10069,6 +10130,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10278,6 +10340,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10487,6 +10550,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10700,6 +10764,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10905,6 +10970,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11110,6 +11176,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11319,6 +11386,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11524,6 +11592,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11733,6 +11802,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11934,6 +12004,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12139,6 +12210,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12340,6 +12412,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12541,6 +12614,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12738,6 +12812,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12943,6 +13018,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
